--- a/resultados_variavel_50_xm.xlsx
+++ b/resultados_variavel_50_xm.xlsx
@@ -452,552 +452,552 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-386.3422557312004</v>
+        <v>427.9782062899712</v>
       </c>
       <c r="B2" t="n">
-        <v>2766.55</v>
+        <v>3374.105</v>
       </c>
       <c r="C2" t="n">
-        <v>-680.287</v>
+        <v>-803.177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-486.6487945740658</v>
+        <v>456.3503240472388</v>
       </c>
       <c r="B3" t="n">
-        <v>2766.55</v>
+        <v>3010.388</v>
       </c>
       <c r="C3" t="n">
-        <v>-680.287</v>
+        <v>-681.174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-550.9113692554195</v>
+        <v>376.2774675207996</v>
       </c>
       <c r="B4" t="n">
-        <v>2766.55</v>
+        <v>2937.464</v>
       </c>
       <c r="C4" t="n">
-        <v>-680.287</v>
+        <v>-679.5700000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-387.2888031316603</v>
+        <v>408.5741938640421</v>
       </c>
       <c r="B5" t="n">
-        <v>2766.55</v>
+        <v>3205.226</v>
       </c>
       <c r="C5" t="n">
-        <v>-680.287</v>
+        <v>-746.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-558.6519402221948</v>
+        <v>387.0446386159527</v>
       </c>
       <c r="B6" t="n">
-        <v>2766.55</v>
+        <v>3921.591</v>
       </c>
       <c r="C6" t="n">
-        <v>-680.287</v>
+        <v>-907.098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-308.5326881249864</v>
+        <v>369.1798734478832</v>
       </c>
       <c r="B7" t="n">
-        <v>2766.55</v>
+        <v>3019.653</v>
       </c>
       <c r="C7" t="n">
-        <v>-680.287</v>
+        <v>-668.325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-484.3201614109616</v>
+        <v>312.9227364959329</v>
       </c>
       <c r="B8" t="n">
-        <v>2766.55</v>
+        <v>3485.01</v>
       </c>
       <c r="C8" t="n">
-        <v>-680.287</v>
+        <v>-800.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-491.3278387828079</v>
+        <v>392.2561362963963</v>
       </c>
       <c r="B9" t="n">
-        <v>2766.55</v>
+        <v>3680.075</v>
       </c>
       <c r="C9" t="n">
-        <v>-680.287</v>
+        <v>-864.307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-495.8466456723793</v>
+        <v>380.7872620768668</v>
       </c>
       <c r="B10" t="n">
-        <v>2766.55</v>
+        <v>3995.136</v>
       </c>
       <c r="C10" t="n">
-        <v>-680.287</v>
+        <v>-939.732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-326.9655598933385</v>
+        <v>530.8715230473686</v>
       </c>
       <c r="B11" t="n">
-        <v>2766.55</v>
+        <v>3411.079</v>
       </c>
       <c r="C11" t="n">
-        <v>-680.287</v>
+        <v>-779.297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-384.2350161539233</v>
+        <v>382.3965490247278</v>
       </c>
       <c r="B12" t="n">
-        <v>2766.55</v>
+        <v>3053.366</v>
       </c>
       <c r="C12" t="n">
-        <v>-680.287</v>
+        <v>-722.427</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-367.4589770270688</v>
+        <v>410.730922019671</v>
       </c>
       <c r="B13" t="n">
-        <v>2766.55</v>
+        <v>3290.369</v>
       </c>
       <c r="C13" t="n">
-        <v>-680.287</v>
+        <v>-736.924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-388.2166701890238</v>
+        <v>533.4681356085605</v>
       </c>
       <c r="B14" t="n">
-        <v>2766.55</v>
+        <v>3302.031</v>
       </c>
       <c r="C14" t="n">
-        <v>-680.287</v>
+        <v>-753.702</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-348.8306436380968</v>
+        <v>430.3367894376382</v>
       </c>
       <c r="B15" t="n">
-        <v>2766.55</v>
+        <v>3472.779</v>
       </c>
       <c r="C15" t="n">
-        <v>-680.287</v>
+        <v>-818.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-423.8644945122265</v>
+        <v>674.6629003601136</v>
       </c>
       <c r="B16" t="n">
-        <v>2766.55</v>
+        <v>3874.8</v>
       </c>
       <c r="C16" t="n">
-        <v>-680.287</v>
+        <v>-897.389</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-425.0686417388436</v>
+        <v>438.0092725114826</v>
       </c>
       <c r="B17" t="n">
-        <v>2766.55</v>
+        <v>3531.565</v>
       </c>
       <c r="C17" t="n">
-        <v>-680.287</v>
+        <v>-814.419</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-368.962367611927</v>
+        <v>688.4379269308076</v>
       </c>
       <c r="B18" t="n">
-        <v>2766.55</v>
+        <v>3628.003</v>
       </c>
       <c r="C18" t="n">
-        <v>-680.287</v>
+        <v>-802.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-466.690975910415</v>
+        <v>492.2175755131212</v>
       </c>
       <c r="B19" t="n">
-        <v>2766.55</v>
+        <v>3570.881</v>
       </c>
       <c r="C19" t="n">
-        <v>-680.287</v>
+        <v>-815.899</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-508.4027443735208</v>
+        <v>445.9809769653837</v>
       </c>
       <c r="B20" t="n">
-        <v>2766.55</v>
+        <v>4237.553</v>
       </c>
       <c r="C20" t="n">
-        <v>-680.287</v>
+        <v>-989.367</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-429.5157795910849</v>
+        <v>482.9289472972656</v>
       </c>
       <c r="B21" t="n">
-        <v>2766.55</v>
+        <v>3801.93</v>
       </c>
       <c r="C21" t="n">
-        <v>-680.287</v>
+        <v>-900.956</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-578.8885167722271</v>
+        <v>325.9809711756966</v>
       </c>
       <c r="B22" t="n">
-        <v>2766.55</v>
+        <v>3125.726</v>
       </c>
       <c r="C22" t="n">
-        <v>-680.287</v>
+        <v>-722.312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-321.181035604441</v>
+        <v>374.3476748999545</v>
       </c>
       <c r="B23" t="n">
-        <v>2766.55</v>
+        <v>5390.704</v>
       </c>
       <c r="C23" t="n">
-        <v>-680.287</v>
+        <v>-1291.607</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-348.5180416395822</v>
+        <v>446.8761000313985</v>
       </c>
       <c r="B24" t="n">
-        <v>2766.55</v>
+        <v>2962.411</v>
       </c>
       <c r="C24" t="n">
-        <v>-680.287</v>
+        <v>-685.606</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-427.5125194979851</v>
+        <v>621.4420870615282</v>
       </c>
       <c r="B25" t="n">
-        <v>2766.55</v>
+        <v>3835.514</v>
       </c>
       <c r="C25" t="n">
-        <v>-680.287</v>
+        <v>-901.747</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-566.8420484510641</v>
+        <v>388.2866908372181</v>
       </c>
       <c r="B26" t="n">
-        <v>2766.55</v>
+        <v>3850.456</v>
       </c>
       <c r="C26" t="n">
-        <v>-680.287</v>
+        <v>-875.9160000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-423.0144661465357</v>
+        <v>307.355801056705</v>
       </c>
       <c r="B27" t="n">
-        <v>2766.55</v>
+        <v>3902.123</v>
       </c>
       <c r="C27" t="n">
-        <v>-680.287</v>
+        <v>-888.718</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-347.8911917486025</v>
+        <v>471.1023505138583</v>
       </c>
       <c r="B28" t="n">
-        <v>2766.55</v>
+        <v>3606.27</v>
       </c>
       <c r="C28" t="n">
-        <v>-680.287</v>
+        <v>-849.633</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-372.72324764691</v>
+        <v>398.1929319938309</v>
       </c>
       <c r="B29" t="n">
-        <v>2766.55</v>
+        <v>2873.417</v>
       </c>
       <c r="C29" t="n">
-        <v>-680.287</v>
+        <v>-665.151</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-460.6886484799761</v>
+        <v>366.8861398576823</v>
       </c>
       <c r="B30" t="n">
-        <v>2766.55</v>
+        <v>3050.101</v>
       </c>
       <c r="C30" t="n">
-        <v>-680.287</v>
+        <v>-701.407</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-445.7709083297034</v>
+        <v>421.8554205074773</v>
       </c>
       <c r="B31" t="n">
-        <v>2766.55</v>
+        <v>4139.028</v>
       </c>
       <c r="C31" t="n">
-        <v>-680.287</v>
+        <v>-978.626</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-453.1076630901799</v>
+        <v>683.8419815910842</v>
       </c>
       <c r="B32" t="n">
-        <v>2766.55</v>
+        <v>6702.29</v>
       </c>
       <c r="C32" t="n">
-        <v>-680.287</v>
+        <v>-1612.015</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-351.5819304927374</v>
+        <v>493.5397201860787</v>
       </c>
       <c r="B33" t="n">
-        <v>2766.55</v>
+        <v>3067.66</v>
       </c>
       <c r="C33" t="n">
-        <v>-680.287</v>
+        <v>-695.314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-400.7279860996452</v>
+        <v>350.0471442470368</v>
       </c>
       <c r="B34" t="n">
-        <v>2766.55</v>
+        <v>3681.09</v>
       </c>
       <c r="C34" t="n">
-        <v>-680.287</v>
+        <v>-794.549</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-543.2433412519564</v>
+        <v>474.8455402235411</v>
       </c>
       <c r="B35" t="n">
-        <v>2766.55</v>
+        <v>3948.737</v>
       </c>
       <c r="C35" t="n">
-        <v>-680.287</v>
+        <v>-920.131</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-375.2111084410512</v>
+        <v>581.6796592647529</v>
       </c>
       <c r="B36" t="n">
-        <v>2766.55</v>
+        <v>3066.572</v>
       </c>
       <c r="C36" t="n">
-        <v>-680.287</v>
+        <v>-719.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-447.0446255396372</v>
+        <v>484.5252051276414</v>
       </c>
       <c r="B37" t="n">
-        <v>2766.55</v>
+        <v>3374.393</v>
       </c>
       <c r="C37" t="n">
-        <v>-680.287</v>
+        <v>-766.361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-356.5597900293623</v>
+        <v>377.5864124150023</v>
       </c>
       <c r="B38" t="n">
-        <v>2766.55</v>
+        <v>3915.663</v>
       </c>
       <c r="C38" t="n">
-        <v>-680.287</v>
+        <v>-909.831</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-329.825249078459</v>
+        <v>555.0158890242848</v>
       </c>
       <c r="B39" t="n">
-        <v>2766.55</v>
+        <v>3062.401</v>
       </c>
       <c r="C39" t="n">
-        <v>-680.287</v>
+        <v>-699.165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-340.0158968179677</v>
+        <v>384.8319075359489</v>
       </c>
       <c r="B40" t="n">
-        <v>2766.55</v>
+        <v>3540.577</v>
       </c>
       <c r="C40" t="n">
-        <v>-680.287</v>
+        <v>-803.572</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-465.5803037552762</v>
+        <v>439.6538973941318</v>
       </c>
       <c r="B41" t="n">
-        <v>2766.55</v>
+        <v>4434.427</v>
       </c>
       <c r="C41" t="n">
-        <v>-680.287</v>
+        <v>-1050.022</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-811.2856737089205</v>
+        <v>338.8121586826168</v>
       </c>
       <c r="B42" t="n">
-        <v>2766.55</v>
+        <v>3366.851</v>
       </c>
       <c r="C42" t="n">
-        <v>-680.287</v>
+        <v>-748.418</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-401.2826934316778</v>
+        <v>392.3103384902411</v>
       </c>
       <c r="B43" t="n">
-        <v>2766.55</v>
+        <v>4163.534</v>
       </c>
       <c r="C43" t="n">
-        <v>-680.287</v>
+        <v>-959.072</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-371.7644628964787</v>
+        <v>395.1749857726152</v>
       </c>
       <c r="B44" t="n">
-        <v>2766.55</v>
+        <v>3126.082</v>
       </c>
       <c r="C44" t="n">
-        <v>-680.287</v>
+        <v>-727.221</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-459.1240996889572</v>
+        <v>394.8568349133555</v>
       </c>
       <c r="B45" t="n">
-        <v>2766.55</v>
+        <v>3594.55</v>
       </c>
       <c r="C45" t="n">
-        <v>-680.287</v>
+        <v>-819.454</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-403.710363018938</v>
+        <v>433.6155259941552</v>
       </c>
       <c r="B46" t="n">
-        <v>2766.55</v>
+        <v>3020.47</v>
       </c>
       <c r="C46" t="n">
-        <v>-680.287</v>
+        <v>-692.724</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-437.4526425672076</v>
+        <v>411.8166612227795</v>
       </c>
       <c r="B47" t="n">
-        <v>2766.55</v>
+        <v>3366.948</v>
       </c>
       <c r="C47" t="n">
-        <v>-680.287</v>
+        <v>-790.314</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-473.7116549710142</v>
+        <v>424.0009022697134</v>
       </c>
       <c r="B48" t="n">
-        <v>2766.55</v>
+        <v>4254.943</v>
       </c>
       <c r="C48" t="n">
-        <v>-680.287</v>
+        <v>-993.772</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-406.2638215561878</v>
+        <v>454.7426359238212</v>
       </c>
       <c r="B49" t="n">
-        <v>2766.55</v>
+        <v>3511.724</v>
       </c>
       <c r="C49" t="n">
-        <v>-680.287</v>
+        <v>-816.1559999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-306.2434869214982</v>
+        <v>415.7674951144306</v>
       </c>
       <c r="B50" t="n">
-        <v>2766.55</v>
+        <v>3376.009</v>
       </c>
       <c r="C50" t="n">
-        <v>-680.287</v>
+        <v>-792.9589999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-295.085111600873</v>
+        <v>424.010216246149</v>
       </c>
       <c r="B51" t="n">
-        <v>2766.55</v>
+        <v>3185.493</v>
       </c>
       <c r="C51" t="n">
-        <v>-680.287</v>
+        <v>-727.229</v>
       </c>
     </row>
   </sheetData>
